--- a/PhotoalbumBacklogPyre.xlsx
+++ b/PhotoalbumBacklogPyre.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t>Task Name</t>
   </si>
@@ -108,9 +108,6 @@
     <t>TASK-08</t>
   </si>
   <si>
-    <t>TASK-09</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implementing a certain feature </t>
   </si>
   <si>
@@ -126,25 +123,22 @@
     <t>Writing Test scenarios with Test cases</t>
   </si>
   <si>
-    <t>Writing Functional Specification</t>
-  </si>
-  <si>
     <t>Automated Tests</t>
   </si>
   <si>
     <t>Daniela</t>
   </si>
   <si>
-    <t>Kriz</t>
-  </si>
-  <si>
     <t>Krasimir/Katerina</t>
   </si>
   <si>
-    <t>Daniela/Kriz/Krasimir</t>
-  </si>
-  <si>
     <t>Fixing bugs</t>
+  </si>
+  <si>
+    <t>Daniela/Kristian/Krasimir</t>
+  </si>
+  <si>
+    <t>Kristian</t>
   </si>
 </sst>
 </file>
@@ -201,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -344,11 +338,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +436,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -415,7 +473,7 @@
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="6">
           <cell r="A6" t="str">
@@ -740,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -841,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -849,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -870,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -878,7 +936,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -899,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -911,13 +969,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7" s="15">
         <v>34</v>
@@ -932,7 +990,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -953,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -961,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -973,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1">
         <v>16</v>
@@ -982,147 +1040,120 @@
         <v>11</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G13">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F13">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:E14 I3:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I13 D3:E13">
       <formula1>YesNo</formula1>
     </dataValidation>
   </dataValidations>
